--- a/Feedback/Game Feedback.xlsx
+++ b/Feedback/Game Feedback.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
   <si>
     <t>No.</t>
   </si>
@@ -203,6 +203,10 @@
   </si>
   <si>
     <t>Will require much visual and audible cues to communicate with the player their progress, also, should there be a checkpoint system of some kind? (Graham &amp; Ricardo - Outplay)</t>
+  </si>
+  <si>
+    <t>old version
+the veil</t>
   </si>
 </sst>
 </file>
@@ -224,12 +228,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -270,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -283,14 +293,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -300,6 +304,30 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -723,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,8 +761,7 @@
     <col min="2" max="2" width="95.5703125" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="3" customWidth="1"/>
+    <col min="5" max="6" width="11.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
@@ -758,588 +785,626 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="12">
         <v>43378</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="10">
         <v>3</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="33" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="12">
         <v>43378</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="10">
         <v>3</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="33" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="12">
         <v>43382</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="10">
         <v>3</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="33" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="12">
         <v>43383</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="8" t="s">
+      <c r="D5" s="10"/>
+      <c r="E5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="12">
         <v>43383</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" ht="33" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="12">
         <v>43383</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="8" t="s">
+      <c r="D7" s="10"/>
+      <c r="E7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:6" ht="33" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="12">
         <v>43383</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="8" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="14">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="12">
         <v>43384</v>
       </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="14">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="12">
         <v>43384</v>
       </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:6" ht="33" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="A11" s="14">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="12">
         <v>43384</v>
       </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
     </row>
     <row r="12" spans="1:6" ht="33" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="A12" s="14">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="12">
         <v>43384</v>
       </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
     </row>
     <row r="13" spans="1:6" ht="33" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+      <c r="A13" s="14">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="12">
         <v>43384</v>
       </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
     </row>
     <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
+      <c r="A14" s="14">
         <v>13</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="12">
         <v>43391</v>
       </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
     </row>
     <row r="15" spans="1:6" ht="33" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+      <c r="A15" s="14">
         <v>14</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="12">
         <v>43391</v>
       </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
     </row>
     <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+      <c r="A16" s="14">
         <v>15</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="12">
         <v>43391</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+    </row>
+    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
         <v>16</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="12">
         <v>43391</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
         <v>17</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="12">
         <v>43391</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="66" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+    </row>
+    <row r="19" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
         <v>18</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="12">
         <v>43391</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+    </row>
+    <row r="20" spans="1:6" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
         <v>19</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="12">
         <v>43391</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
+      <c r="D20" s="16"/>
+      <c r="E20" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="16"/>
+    </row>
+    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="7">
-        <v>43398</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
+      <c r="C21" s="6">
+        <v>43398</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="33" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="7">
-        <v>43398</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
+      <c r="C22" s="6">
+        <v>43398</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="33" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
         <v>22</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="7">
-        <v>43398</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
+      <c r="C23" s="6">
+        <v>43398</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="33" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
         <v>23</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="7">
-        <v>43398</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
+      <c r="C24" s="6">
+        <v>43398</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
         <v>24</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="7">
-        <v>43398</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
+      <c r="C25" s="6">
+        <v>43398</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
         <v>25</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="7">
-        <v>43398</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
+      <c r="C26" s="6">
+        <v>43398</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="33" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
         <v>26</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="7">
-        <v>43398</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
+      <c r="C27" s="6">
+        <v>43398</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="33" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
         <v>27</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="7">
-        <v>43398</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A29" s="10">
+      <c r="C28" s="6">
+        <v>43398</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="33" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
         <v>28</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="7">
-        <v>43398</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A30" s="10">
+      <c r="C29" s="6">
+        <v>43398</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="33" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
         <v>29</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="7">
-        <v>43398</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
+      <c r="C30" s="6">
+        <v>43398</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
         <v>30</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="7">
-        <v>43398</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="10">
+      <c r="C31" s="6">
+        <v>43398</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
         <v>31</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="6">
         <v>43398</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="10">
+      <c r="A33" s="8">
         <v>32</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="6">
         <v>43398</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A34" s="10">
+      <c r="A34" s="8">
         <v>33</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="6">
         <v>43398</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="10">
+      <c r="A35" s="8">
         <v>34</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="6">
         <v>43398</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A36" s="10">
+      <c r="A36" s="8">
         <v>35</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="6">
         <v>43398</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="10">
+      <c r="A37" s="8">
         <v>36</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="6">
         <v>43398</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="10">
+      <c r="A38" s="8">
         <v>37</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="6">
         <v>43398</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="10">
+      <c r="A39" s="8">
         <v>38</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="6">
         <v>43398</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A40" s="10">
+      <c r="A40" s="8">
         <v>39</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="6">
         <v>43399</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A41" s="10">
+      <c r="A41" s="8">
         <v>40</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="6">
         <v>43399</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="10">
+      <c r="A42" s="8">
         <v>41</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="6">
         <v>43399</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A43" s="10">
+      <c r="A43" s="8">
         <v>42</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="6">
         <v>43399</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A44" s="10">
+      <c r="A44" s="8">
         <v>43</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="6">
         <v>43399</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A45" s="10">
+      <c r="A45" s="8">
         <v>44</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="6">
         <v>43399</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A46" s="10">
+      <c r="A46" s="8">
         <v>45</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="6">
         <v>43399</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="10">
+      <c r="A47" s="8">
         <v>46</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="6">
         <v>43399</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="10">
+      <c r="A48" s="8">
         <v>47</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="6">
         <v>43399</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A49" s="10">
+      <c r="A49" s="8">
         <v>48</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="6">
         <v>43399</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="10">
+      <c r="A50" s="8">
         <v>49</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="6">
         <v>43399</v>
       </c>
     </row>

--- a/Feedback/Game Feedback.xlsx
+++ b/Feedback/Game Feedback.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
   <si>
     <t>No.</t>
   </si>
@@ -209,10 +209,31 @@
 the veil</t>
   </si>
   <si>
-    <t>Because the camera following the character everytime, when the player keep jumping, the camera will keep shaking, it makes player feel uncomfortable.</t>
-  </si>
-  <si>
-    <t>Game title and menu looks too ugly.</t>
+    <t>Can complete the game with a "triple jump" before playing the game (resize/rescale?) Martin + Team</t>
+  </si>
+  <si>
+    <t>Player needs more hand-holding than currently present, unaware of goal from beginning of game, and did not complete (Martin)</t>
+  </si>
+  <si>
+    <t>"Tutorial" text box is infuriating, almost unpassable at first (Martin)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Needs better signposting, and interactions between platforms button was wrongly noted (E instead of F) (Martin) </t>
+  </si>
+  <si>
+    <t>Artwork is good and fits theme game's theme, though looking forward to new iterations and developments (Martin)</t>
+  </si>
+  <si>
+    <t>Music (across all three themes) is great. (Martin)</t>
+  </si>
+  <si>
+    <t>Jumping can be a bit distracting "jarring," so I need to find a way of making it less tiresome, maybe lower volume and add slight randomisation to pitch to start off with? (Martin)</t>
+  </si>
+  <si>
+    <t>Audio issues, cutting out intermittingly (I think this could be to do with transitions between certain combinations of the planes and I can fix this with a bit of Wwise troubleshooting) (Martin)</t>
+  </si>
+  <si>
+    <t>Loves the backstory, but feels it could be explored more in-game (Martin)</t>
   </si>
 </sst>
 </file>
@@ -755,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1422,10 +1443,10 @@
         <v>61</v>
       </c>
       <c r="C51" s="6">
-        <v>43418</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>43417</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="33" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>51</v>
       </c>
@@ -1433,7 +1454,63 @@
         <v>62</v>
       </c>
       <c r="C52" s="6">
-        <v>43418</v>
+        <v>43417</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B53" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="6">
+        <v>43417</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="B54" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="6">
+        <v>43417</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="B55" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" s="6">
+        <v>43417</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B56" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" s="6">
+        <v>43417</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="B57" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="6">
+        <v>43417</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="B58" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="6">
+        <v>43417</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B59" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="6">
+        <v>43417</v>
       </c>
     </row>
   </sheetData>

--- a/Feedback/Game Feedback.xlsx
+++ b/Feedback/Game Feedback.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
   <si>
     <t>No.</t>
   </si>
@@ -234,6 +234,12 @@
   </si>
   <si>
     <t>Loves the backstory, but feels it could be explored more in-game (Martin)</t>
+  </si>
+  <si>
+    <t>Because the camera following the character everytime, when the player keep jumping, the camera will keep shaking, it makes player feel uncomfortable.</t>
+  </si>
+  <si>
+    <t>Game title and menu looks too ugly.</t>
   </si>
 </sst>
 </file>
@@ -776,10 +782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1511,6 +1517,22 @@
       </c>
       <c r="C59" s="6">
         <v>43417</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="B60" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" s="6">
+        <v>43418</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B61" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" s="6">
+        <v>43418</v>
       </c>
     </row>
   </sheetData>

--- a/Feedback/Game Feedback.xlsx
+++ b/Feedback/Game Feedback.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="79">
   <si>
     <t>No.</t>
   </si>
@@ -240,6 +240,27 @@
   </si>
   <si>
     <t>Game title and menu looks too ugly.</t>
+  </si>
+  <si>
+    <t>Double jump requires fine touch, can't predict where Raven will land with the camera being so sharp and zoomed in. (Cian)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aim for teaching  the player new mechanics 3 times in 3 different ways. (Cian) </t>
+  </si>
+  <si>
+    <t>Really likes the mechanic, but feels like its dropped on the player, and this level is beyond tutorial level (Cian)</t>
+  </si>
+  <si>
+    <t>Needs a better sense of correct progress and direction (Cian)</t>
+  </si>
+  <si>
+    <t>Too much text, feels in general players ignore text (Cian)</t>
+  </si>
+  <si>
+    <t>The Lever needs to stand out better against the background (Martin)</t>
+  </si>
+  <si>
+    <t>Remaining time just making fixes and minor adjustments to do with sign-posting, be aware of what changes you would make, hypothetically and note them down,  but this is outwith the scope of the deadline</t>
   </si>
 </sst>
 </file>
@@ -782,10 +803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1534,6 +1555,47 @@
       <c r="C61" s="6">
         <v>43418</v>
       </c>
+    </row>
+    <row r="62" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="B62" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B63" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="B64" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B65" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B66" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B67" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="B68" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B69" s="7"/>
+    </row>
+    <row r="70" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B70" s="7"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:F8">
